--- a/individual amortization tables/LoanTape 17.xlsx
+++ b/individual amortization tables/LoanTape 17.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28-07-2024</t>
+          <t>30-07-2024</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -561,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24-01-2025</t>
+          <t>30-01-2025</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -595,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23-07-2025</t>
+          <t>30-07-2025</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -629,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>19-01-2026</t>
+          <t>30-01-2026</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -663,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18-07-2026</t>
+          <t>30-07-2026</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -697,7 +697,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14-01-2027</t>
+          <t>30-01-2027</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -736,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1082"/>
+  <dimension ref="A1:K1098"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7461,7 +7461,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -7472,16 +7472,16 @@
         <v>10000</v>
       </c>
       <c r="E182" t="n">
-        <v>325.47</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>252.62</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>72.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="K182" t="n">
-        <v>9677.15</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="183">
@@ -7498,7 +7498,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>9677.15</v>
+        <v>10000</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>9677.15</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="184">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>9677.15</v>
+        <v>10000</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>325.47</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>252.62</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14121,7 +14121,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -14132,16 +14132,16 @@
         <v>9677.15</v>
       </c>
       <c r="E362" t="n">
-        <v>325.47</v>
+        <v>0</v>
       </c>
       <c r="F362" t="n">
-        <v>244.46</v>
+        <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>241.93</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -14150,7 +14150,7 @@
         <v>0</v>
       </c>
       <c r="K362" t="n">
-        <v>9354.219999999999</v>
+        <v>9677.15</v>
       </c>
     </row>
     <row r="363">
@@ -14158,7 +14158,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>9354.219999999999</v>
+        <v>9677.15</v>
       </c>
       <c r="E363" t="n">
         <v>0</v>
@@ -14187,7 +14187,7 @@
         <v>0</v>
       </c>
       <c r="K363" t="n">
-        <v>9354.219999999999</v>
+        <v>9677.15</v>
       </c>
     </row>
     <row r="364">
@@ -14195,7 +14195,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>9354.219999999999</v>
+        <v>9677.15</v>
       </c>
       <c r="E364" t="n">
         <v>0</v>
@@ -14224,7 +14224,7 @@
         <v>0</v>
       </c>
       <c r="K364" t="n">
-        <v>9354.219999999999</v>
+        <v>9677.15</v>
       </c>
     </row>
     <row r="365">
@@ -14232,7 +14232,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -14240,7 +14240,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>9354.219999999999</v>
+        <v>9677.15</v>
       </c>
       <c r="E365" t="n">
         <v>0</v>
@@ -14261,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="K365" t="n">
-        <v>9354.219999999999</v>
+        <v>9677.15</v>
       </c>
     </row>
     <row r="366">
@@ -14269,7 +14269,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -14277,7 +14277,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>9354.219999999999</v>
+        <v>9677.15</v>
       </c>
       <c r="E366" t="n">
         <v>0</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="K366" t="n">
-        <v>9354.219999999999</v>
+        <v>9677.15</v>
       </c>
     </row>
     <row r="367">
@@ -14306,7 +14306,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>9354.219999999999</v>
+        <v>9677.15</v>
       </c>
       <c r="E367" t="n">
         <v>0</v>
@@ -14335,7 +14335,7 @@
         <v>0</v>
       </c>
       <c r="K367" t="n">
-        <v>9354.219999999999</v>
+        <v>9677.15</v>
       </c>
     </row>
     <row r="368">
@@ -14351,19 +14351,19 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>9354.219999999999</v>
+        <v>9677.15</v>
       </c>
       <c r="E368" t="n">
-        <v>0</v>
+        <v>325.47</v>
       </c>
       <c r="F368" t="n">
-        <v>0</v>
+        <v>244.46</v>
       </c>
       <c r="G368" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>241.93</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -20781,7 +20781,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
@@ -20792,16 +20792,16 @@
         <v>9354.219999999999</v>
       </c>
       <c r="E542" t="n">
-        <v>325.47</v>
+        <v>0</v>
       </c>
       <c r="F542" t="n">
-        <v>236.31</v>
+        <v>0</v>
       </c>
       <c r="G542" t="n">
-        <v>89.16</v>
+        <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>233.86</v>
+        <v>0</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -20810,7 +20810,7 @@
         <v>0</v>
       </c>
       <c r="K542" t="n">
-        <v>9031.200000000001</v>
+        <v>9354.219999999999</v>
       </c>
     </row>
     <row r="543">
@@ -20818,7 +20818,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>9031.200000000001</v>
+        <v>9354.219999999999</v>
       </c>
       <c r="E543" t="n">
         <v>0</v>
@@ -20847,7 +20847,7 @@
         <v>0</v>
       </c>
       <c r="K543" t="n">
-        <v>9031.200000000001</v>
+        <v>9354.219999999999</v>
       </c>
     </row>
     <row r="544">
@@ -20855,7 +20855,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>9031.200000000001</v>
+        <v>9354.219999999999</v>
       </c>
       <c r="E544" t="n">
         <v>0</v>
@@ -20884,7 +20884,7 @@
         <v>0</v>
       </c>
       <c r="K544" t="n">
-        <v>9031.200000000001</v>
+        <v>9354.219999999999</v>
       </c>
     </row>
     <row r="545">
@@ -20892,7 +20892,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
@@ -20900,7 +20900,7 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>9031.200000000001</v>
+        <v>9354.219999999999</v>
       </c>
       <c r="E545" t="n">
         <v>0</v>
@@ -20921,7 +20921,7 @@
         <v>0</v>
       </c>
       <c r="K545" t="n">
-        <v>9031.200000000001</v>
+        <v>9354.219999999999</v>
       </c>
     </row>
     <row r="546">
@@ -20929,7 +20929,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>9031.200000000001</v>
+        <v>9354.219999999999</v>
       </c>
       <c r="E546" t="n">
         <v>0</v>
@@ -20958,7 +20958,7 @@
         <v>0</v>
       </c>
       <c r="K546" t="n">
-        <v>9031.200000000001</v>
+        <v>9354.219999999999</v>
       </c>
     </row>
     <row r="547">
@@ -20966,7 +20966,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>9031.200000000001</v>
+        <v>9354.219999999999</v>
       </c>
       <c r="E547" t="n">
         <v>0</v>
@@ -20995,7 +20995,7 @@
         <v>0</v>
       </c>
       <c r="K547" t="n">
-        <v>9031.200000000001</v>
+        <v>9354.219999999999</v>
       </c>
     </row>
     <row r="548">
@@ -21003,7 +21003,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>9031.200000000001</v>
+        <v>9354.219999999999</v>
       </c>
       <c r="E548" t="n">
         <v>0</v>
@@ -21032,7 +21032,7 @@
         <v>0</v>
       </c>
       <c r="K548" t="n">
-        <v>9031.200000000001</v>
+        <v>9354.219999999999</v>
       </c>
     </row>
     <row r="549">
@@ -21048,19 +21048,19 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>9031.200000000001</v>
+        <v>9354.219999999999</v>
       </c>
       <c r="E549" t="n">
-        <v>0</v>
+        <v>325.47</v>
       </c>
       <c r="F549" t="n">
-        <v>0</v>
+        <v>236.31</v>
       </c>
       <c r="G549" t="n">
-        <v>0</v>
+        <v>89.16</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>233.86</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C722" t="inlineStr">
         <is>
@@ -27452,16 +27452,16 @@
         <v>9031.200000000001</v>
       </c>
       <c r="E722" t="n">
-        <v>325.47</v>
+        <v>0</v>
       </c>
       <c r="F722" t="n">
-        <v>228.15</v>
+        <v>0</v>
       </c>
       <c r="G722" t="n">
-        <v>97.31999999999999</v>
+        <v>0</v>
       </c>
       <c r="H722" t="n">
-        <v>225.78</v>
+        <v>0</v>
       </c>
       <c r="I722" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="K722" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
     </row>
     <row r="723">
@@ -27478,7 +27478,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C723" t="inlineStr">
         <is>
@@ -27486,7 +27486,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
       <c r="E723" t="n">
         <v>0</v>
@@ -27507,7 +27507,7 @@
         <v>0</v>
       </c>
       <c r="K723" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
     </row>
     <row r="724">
@@ -27515,7 +27515,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C724" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
       <c r="E724" t="n">
         <v>0</v>
@@ -27544,7 +27544,7 @@
         <v>0</v>
       </c>
       <c r="K724" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
     </row>
     <row r="725">
@@ -27552,7 +27552,7 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C725" t="inlineStr">
         <is>
@@ -27560,7 +27560,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
       <c r="E725" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="K725" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
     </row>
     <row r="726">
@@ -27589,7 +27589,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C726" t="inlineStr">
         <is>
@@ -27597,7 +27597,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
       <c r="E726" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="K726" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
     </row>
     <row r="727">
@@ -27626,7 +27626,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C727" t="inlineStr">
         <is>
@@ -27634,7 +27634,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
       <c r="E727" t="n">
         <v>0</v>
@@ -27655,7 +27655,7 @@
         <v>0</v>
       </c>
       <c r="K727" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
     </row>
     <row r="728">
@@ -27663,7 +27663,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C728" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
       <c r="E728" t="n">
         <v>0</v>
@@ -27692,7 +27692,7 @@
         <v>0</v>
       </c>
       <c r="K728" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
     </row>
     <row r="729">
@@ -27700,7 +27700,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C729" t="inlineStr">
         <is>
@@ -27708,7 +27708,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
       <c r="E729" t="n">
         <v>0</v>
@@ -27729,7 +27729,7 @@
         <v>0</v>
       </c>
       <c r="K729" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
     </row>
     <row r="730">
@@ -27737,7 +27737,7 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C730" t="inlineStr">
         <is>
@@ -27745,7 +27745,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
       <c r="E730" t="n">
         <v>0</v>
@@ -27766,7 +27766,7 @@
         <v>0</v>
       </c>
       <c r="K730" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
     </row>
     <row r="731">
@@ -27774,7 +27774,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C731" t="inlineStr">
         <is>
@@ -27782,7 +27782,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
       <c r="E731" t="n">
         <v>0</v>
@@ -27803,7 +27803,7 @@
         <v>0</v>
       </c>
       <c r="K731" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
     </row>
     <row r="732">
@@ -27811,7 +27811,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C732" t="inlineStr">
         <is>
@@ -27819,7 +27819,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
       <c r="E732" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="K732" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
     </row>
     <row r="733">
@@ -27856,19 +27856,19 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>8708.1</v>
+        <v>9031.200000000001</v>
       </c>
       <c r="E733" t="n">
-        <v>0</v>
+        <v>325.47</v>
       </c>
       <c r="F733" t="n">
-        <v>0</v>
+        <v>228.15</v>
       </c>
       <c r="G733" t="n">
-        <v>0</v>
+        <v>97.31999999999999</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>225.78</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
@@ -34101,7 +34101,7 @@
         <v>900</v>
       </c>
       <c r="B902" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C902" t="inlineStr">
         <is>
@@ -34112,16 +34112,16 @@
         <v>8708.1</v>
       </c>
       <c r="E902" t="n">
-        <v>325.47</v>
+        <v>0</v>
       </c>
       <c r="F902" t="n">
-        <v>219.98</v>
+        <v>0</v>
       </c>
       <c r="G902" t="n">
-        <v>105.48</v>
+        <v>0</v>
       </c>
       <c r="H902" t="n">
-        <v>217.7</v>
+        <v>0</v>
       </c>
       <c r="I902" t="n">
         <v>0</v>
@@ -34130,7 +34130,7 @@
         <v>0</v>
       </c>
       <c r="K902" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
     </row>
     <row r="903">
@@ -34138,7 +34138,7 @@
         <v>901</v>
       </c>
       <c r="B903" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C903" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
       <c r="E903" t="n">
         <v>0</v>
@@ -34167,7 +34167,7 @@
         <v>0</v>
       </c>
       <c r="K903" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
     </row>
     <row r="904">
@@ -34175,7 +34175,7 @@
         <v>902</v>
       </c>
       <c r="B904" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C904" t="inlineStr">
         <is>
@@ -34183,7 +34183,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
       <c r="E904" t="n">
         <v>0</v>
@@ -34204,7 +34204,7 @@
         <v>0</v>
       </c>
       <c r="K904" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
     </row>
     <row r="905">
@@ -34212,7 +34212,7 @@
         <v>903</v>
       </c>
       <c r="B905" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C905" t="inlineStr">
         <is>
@@ -34220,7 +34220,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
       <c r="E905" t="n">
         <v>0</v>
@@ -34241,7 +34241,7 @@
         <v>0</v>
       </c>
       <c r="K905" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
     </row>
     <row r="906">
@@ -34249,7 +34249,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C906" t="inlineStr">
         <is>
@@ -34257,7 +34257,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
       <c r="E906" t="n">
         <v>0</v>
@@ -34278,7 +34278,7 @@
         <v>0</v>
       </c>
       <c r="K906" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
     </row>
     <row r="907">
@@ -34286,7 +34286,7 @@
         <v>905</v>
       </c>
       <c r="B907" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C907" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
       <c r="E907" t="n">
         <v>0</v>
@@ -34315,7 +34315,7 @@
         <v>0</v>
       </c>
       <c r="K907" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
     </row>
     <row r="908">
@@ -34323,7 +34323,7 @@
         <v>906</v>
       </c>
       <c r="B908" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C908" t="inlineStr">
         <is>
@@ -34331,7 +34331,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
       <c r="E908" t="n">
         <v>0</v>
@@ -34352,7 +34352,7 @@
         <v>0</v>
       </c>
       <c r="K908" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
     </row>
     <row r="909">
@@ -34360,7 +34360,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C909" t="inlineStr">
         <is>
@@ -34368,7 +34368,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
       <c r="E909" t="n">
         <v>0</v>
@@ -34389,7 +34389,7 @@
         <v>0</v>
       </c>
       <c r="K909" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
     </row>
     <row r="910">
@@ -34397,7 +34397,7 @@
         <v>908</v>
       </c>
       <c r="B910" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C910" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
       <c r="E910" t="n">
         <v>0</v>
@@ -34426,7 +34426,7 @@
         <v>0</v>
       </c>
       <c r="K910" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
     </row>
     <row r="911">
@@ -34434,7 +34434,7 @@
         <v>909</v>
       </c>
       <c r="B911" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C911" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
       <c r="E911" t="n">
         <v>0</v>
@@ -34463,7 +34463,7 @@
         <v>0</v>
       </c>
       <c r="K911" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
     </row>
     <row r="912">
@@ -34471,7 +34471,7 @@
         <v>910</v>
       </c>
       <c r="B912" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C912" t="inlineStr">
         <is>
@@ -34479,7 +34479,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
       <c r="E912" t="n">
         <v>0</v>
@@ -34500,7 +34500,7 @@
         <v>0</v>
       </c>
       <c r="K912" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
     </row>
     <row r="913">
@@ -34508,7 +34508,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C913" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
       <c r="E913" t="n">
         <v>0</v>
@@ -34537,7 +34537,7 @@
         <v>0</v>
       </c>
       <c r="K913" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
     </row>
     <row r="914">
@@ -34553,19 +34553,19 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>8384.91</v>
+        <v>8708.1</v>
       </c>
       <c r="E914" t="n">
-        <v>0</v>
+        <v>325.47</v>
       </c>
       <c r="F914" t="n">
-        <v>0</v>
+        <v>219.98</v>
       </c>
       <c r="G914" t="n">
-        <v>0</v>
+        <v>105.48</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>217.7</v>
       </c>
       <c r="I914" t="n">
         <v>0</v>
@@ -40761,7 +40761,7 @@
         <v>1080</v>
       </c>
       <c r="B1082" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1082" t="inlineStr">
         <is>
@@ -40772,24 +40772,616 @@
         <v>8384.91</v>
       </c>
       <c r="E1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>15-01-2027</t>
+        </is>
+      </c>
+      <c r="D1083" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>16-01-2027</t>
+        </is>
+      </c>
+      <c r="D1084" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>17-01-2027</t>
+        </is>
+      </c>
+      <c r="D1085" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>18-01-2027</t>
+        </is>
+      </c>
+      <c r="D1086" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>19-01-2027</t>
+        </is>
+      </c>
+      <c r="D1087" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>20-01-2027</t>
+        </is>
+      </c>
+      <c r="D1088" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>21-01-2027</t>
+        </is>
+      </c>
+      <c r="D1089" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>22-01-2027</t>
+        </is>
+      </c>
+      <c r="D1090" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>23-01-2027</t>
+        </is>
+      </c>
+      <c r="D1091" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>24-01-2027</t>
+        </is>
+      </c>
+      <c r="D1092" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="1" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>25-01-2027</t>
+        </is>
+      </c>
+      <c r="D1093" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="1" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>26-01-2027</t>
+        </is>
+      </c>
+      <c r="D1094" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>27-01-2027</t>
+        </is>
+      </c>
+      <c r="D1095" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="1" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>28-01-2027</t>
+        </is>
+      </c>
+      <c r="D1096" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="1" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>29-01-2027</t>
+        </is>
+      </c>
+      <c r="D1097" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>8384.91</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="1" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>30-01-2027</t>
+        </is>
+      </c>
+      <c r="D1098" t="n">
+        <v>8384.91</v>
+      </c>
+      <c r="E1098" t="n">
         <v>325.47</v>
       </c>
-      <c r="F1082" t="n">
+      <c r="F1098" t="n">
         <v>211.82</v>
       </c>
-      <c r="G1082" t="n">
+      <c r="G1098" t="n">
         <v>113.65</v>
       </c>
-      <c r="H1082" t="n">
+      <c r="H1098" t="n">
         <v>209.62</v>
       </c>
-      <c r="I1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="J1082" t="n">
+      <c r="I1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1098" t="n">
         <v>8061.64</v>
       </c>
-      <c r="K1082" t="n">
+      <c r="K1098" t="n">
         <v>0</v>
       </c>
     </row>
